--- a/xls/weekly_ary_excel_0523_0527.xlsx
+++ b/xls/weekly_ary_excel_0523_0527.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Data\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Data\Data_Processing\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,238 +33,239 @@
     <t>project_non_project_ratio</t>
   </si>
   <si>
-    <t>Abbie Yang</t>
-  </si>
-  <si>
-    <t>Abby Chang</t>
-  </si>
-  <si>
-    <t>Alan Hsu</t>
-  </si>
-  <si>
-    <t>Allen Lee</t>
-  </si>
-  <si>
-    <t>Andrey Wang</t>
-  </si>
-  <si>
-    <t>Andy Lee</t>
-  </si>
-  <si>
-    <t>Avery Huang</t>
-  </si>
-  <si>
-    <t>Betty Chen</t>
-  </si>
-  <si>
-    <t>Bill Chen</t>
-  </si>
-  <si>
-    <t>Charlie Lin</t>
-  </si>
-  <si>
-    <t>Chloe Tsai</t>
-  </si>
-  <si>
-    <t>Cloud Sung</t>
-  </si>
-  <si>
-    <t>Colin Jheng</t>
-  </si>
-  <si>
-    <t>Danny Zhong</t>
-  </si>
-  <si>
-    <t>David Wang</t>
-  </si>
-  <si>
-    <t>Derek Chen</t>
-  </si>
-  <si>
-    <t>Donna Chang</t>
-  </si>
-  <si>
-    <t>Dora Chang</t>
-  </si>
-  <si>
-    <t>Duke Chen</t>
-  </si>
-  <si>
-    <t>Grace Chiu</t>
-  </si>
-  <si>
-    <t>Han Chen</t>
-  </si>
-  <si>
-    <t>Hank Lin</t>
-  </si>
-  <si>
-    <t>Jasper Chang</t>
-  </si>
-  <si>
-    <t>Jimmy Chiang</t>
-  </si>
-  <si>
-    <t>Jocelyn Yu</t>
-  </si>
-  <si>
-    <t>Jojo Wu</t>
-  </si>
-  <si>
-    <t>Judy Kuo</t>
-  </si>
-  <si>
-    <t>Kiki Ciou</t>
-  </si>
-  <si>
-    <t>Kira Liao</t>
-  </si>
-  <si>
-    <t>Lynn Chen</t>
-  </si>
-  <si>
-    <t>Mars Chien</t>
-  </si>
-  <si>
-    <t>Michael Cheng</t>
-  </si>
-  <si>
-    <t>Minghsuan Wu</t>
-  </si>
-  <si>
-    <t>Moti Wu</t>
-  </si>
-  <si>
-    <t>News Hsu</t>
-  </si>
-  <si>
-    <t>Nick Hsu</t>
-  </si>
-  <si>
-    <t>Owen Chang</t>
-  </si>
-  <si>
-    <t>Owen Lin</t>
-  </si>
-  <si>
-    <t>Rachel Hsu</t>
-  </si>
-  <si>
-    <t>Rex Liu</t>
-  </si>
-  <si>
-    <t>Roy Hsiao</t>
-  </si>
-  <si>
-    <t>Sam Chang</t>
-  </si>
-  <si>
-    <t>Sam Yang</t>
-  </si>
-  <si>
-    <t>Samuel Zhuang</t>
-  </si>
-  <si>
-    <t>Sean Wang</t>
-  </si>
-  <si>
-    <t>Simon Liu</t>
-  </si>
-  <si>
-    <t>Sky Hsu</t>
-  </si>
-  <si>
-    <t>Sophia He</t>
-  </si>
-  <si>
-    <t>Sunny Hu</t>
-  </si>
-  <si>
-    <t>Troy Yan</t>
-  </si>
-  <si>
-    <t>Vince Lin</t>
-  </si>
-  <si>
-    <t>Willis Shao</t>
-  </si>
-  <si>
-    <t>Witter Kuo</t>
-  </si>
-  <si>
-    <t>Yuni Chou</t>
-  </si>
-  <si>
-    <t>Yvonne Huang</t>
-  </si>
-  <si>
-    <t>Zach Huang</t>
-  </si>
-  <si>
-    <t>Zedd Zhong</t>
-  </si>
-  <si>
-    <t>Zoey Shen</t>
-  </si>
-  <si>
-    <t>Charles Shih</t>
-  </si>
-  <si>
-    <t>elisa.chao</t>
-  </si>
-  <si>
-    <t>kranti.nebhwani</t>
-  </si>
-  <si>
-    <t>Peter Tsai</t>
-  </si>
-  <si>
-    <t>Ann Teng</t>
-  </si>
-  <si>
-    <t>Bill Wu</t>
-  </si>
-  <si>
-    <t>Becky Chen</t>
-  </si>
-  <si>
-    <t>Cheng Cheng</t>
-  </si>
-  <si>
-    <t>Hyde Pan</t>
-  </si>
-  <si>
-    <t>Mark Huang</t>
-  </si>
-  <si>
-    <t>Jason Peng</t>
-  </si>
-  <si>
-    <t>Leo Chang</t>
-  </si>
-  <si>
-    <t>Knock Yang</t>
-  </si>
-  <si>
-    <t>Yvonne Chang</t>
-  </si>
-  <si>
-    <t>Ann Wang</t>
-  </si>
-  <si>
-    <t>Noelle Liu</t>
-  </si>
-  <si>
-    <t>Jonathan Yu</t>
-  </si>
-  <si>
-    <t>Liam Chin</t>
-  </si>
-  <si>
-    <t>Ethan Li</t>
-  </si>
-  <si>
-    <t>Otis Lin</t>
+    <t>A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>A65</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A67</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>A69</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A76</t>
+  </si>
+  <si>
+    <t>A77</t>
+  </si>
+  <si>
+    <t>A78</t>
   </si>
 </sst>
 </file>
@@ -638,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
